--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1910207.247456151</v>
+        <v>-1913068.061248443</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.07720442932798</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>122.6622323399416</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>78.40386952881418</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>169.1984219544393</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>95.07619972956108</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>194.734199044645</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>59.80127191868286</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.42220232467178</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>94.41981690171394</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>45.27304542110144</v>
+        <v>19.46872032370135</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>183.2853362594739</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658357</v>
+        <v>32.80402178030143</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814985</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>169.0057058471797</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1230,7 +1230,7 @@
         <v>93.83392671696365</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906603</v>
+        <v>23.79630926906601</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>192.4848946346714</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>194.995346630937</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.0251168634279</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169635</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>193.1320857451862</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>58.24545145093346</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>167.7243167060843</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>79.36266849663015</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>259.1946486785674</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.89996056624759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793572</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.1043876014619</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1043876014619</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1043876014619</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V2" t="n">
-        <v>380.4820441686398</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W2" t="n">
-        <v>114.1043876014619</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X2" t="n">
-        <v>114.1043876014619</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.1043876014619</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>246.8274961801185</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>246.8274961801185</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>246.8274961801185</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>246.8274961801185</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>100.2929382070035</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>100.2929382070035</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V3" t="n">
-        <v>735.3117246861882</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="W3" t="n">
-        <v>481.0743679579866</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>415.0428332001866</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>415.0428332001866</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>563.0088271968609</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C4" t="n">
-        <v>466.9722618134659</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>466.9722618134659</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>466.9722618134659</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>466.9722618134659</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4489,13 +4489,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227045</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640389</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640389</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W4" t="n">
-        <v>563.0088271968609</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="X4" t="n">
-        <v>563.0088271968609</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.0088271968609</v>
+        <v>171.2137498124562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
         <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,10 +4592,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
         <v>840.1393936243022</v>
@@ -4604,13 +4604,13 @@
         <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243022</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329.2689750668272</v>
+        <v>442.931267414935</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>442.931267414935</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>442.931267414935</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>283.6938124094795</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>137.1592544363645</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>137.1592544363645</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>36.67509254625361</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
         <v>338.874007230231</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="V6" t="n">
-        <v>959.4819675800509</v>
+        <v>442.931267414935</v>
       </c>
       <c r="W6" t="n">
-        <v>705.2446108518492</v>
+        <v>442.931267414935</v>
       </c>
       <c r="X6" t="n">
-        <v>705.2446108518492</v>
+        <v>442.931267414935</v>
       </c>
       <c r="Y6" t="n">
-        <v>497.4843120868953</v>
+        <v>442.931267414935</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388466</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329598</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="W7" t="n">
-        <v>488.0630263227563</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="X7" t="n">
-        <v>488.0630263227563</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.0630263227563</v>
+        <v>336.5564185430274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1472.480702279558</v>
+        <v>1234.691633922077</v>
       </c>
       <c r="C8" t="n">
-        <v>1287.34399898716</v>
+        <v>1234.691633922077</v>
       </c>
       <c r="D8" t="n">
-        <v>929.0783003804097</v>
+        <v>876.4259353153268</v>
       </c>
       <c r="E8" t="n">
-        <v>543.2900477821654</v>
+        <v>490.6376827170826</v>
       </c>
       <c r="F8" t="n">
-        <v>132.3041429925578</v>
+        <v>79.651777927475</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970189</v>
+        <v>46.51640239181699</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970189</v>
+        <v>46.51640239181699</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181698</v>
+        <v>46.51640239181699</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229161</v>
+        <v>166.4989367229164</v>
       </c>
       <c r="K8" t="n">
         <v>397.0601716677497</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937583</v>
+        <v>719.9935330937585</v>
       </c>
       <c r="M8" t="n">
         <v>1110.988557721578</v>
@@ -4826,28 +4826,28 @@
         <v>2317.794388257587</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.82011959085</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.82011959085</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.216769844008</v>
+        <v>2325.82011959085</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.62003425537</v>
+        <v>2325.82011959085</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.62003425537</v>
+        <v>1994.757232247279</v>
       </c>
       <c r="W8" t="n">
-        <v>1862.62003425537</v>
+        <v>1994.757232247279</v>
       </c>
       <c r="X8" t="n">
-        <v>1862.62003425537</v>
+        <v>1621.291473986199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1472.480702279558</v>
+        <v>1621.291473986199</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>927.5603247865281</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
         <v>756.8474905974576</v>
@@ -4866,67 +4866,67 @@
         <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307509</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576359</v>
+        <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797258</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117661</v>
+        <v>70.55307842117659</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181698</v>
+        <v>46.51640239181699</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067844</v>
+        <v>99.15933091977968</v>
       </c>
       <c r="K9" t="n">
-        <v>492.3148185169809</v>
+        <v>267.289305341283</v>
       </c>
       <c r="L9" t="n">
-        <v>764.7088588093957</v>
+        <v>539.6833456336979</v>
       </c>
       <c r="M9" t="n">
-        <v>1101.93672400606</v>
+        <v>1094.834687517153</v>
       </c>
       <c r="N9" t="n">
-        <v>1462.498652257397</v>
+        <v>1670.475167115888</v>
       </c>
       <c r="O9" t="n">
-        <v>1770.122579918285</v>
+        <v>1978.099094776776</v>
       </c>
       <c r="P9" t="n">
-        <v>1997.684836227401</v>
+        <v>2205.661351085892</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570702</v>
+        <v>2307.861496570703</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.82011959085</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160703</v>
+        <v>2188.151005160704</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661035</v>
+        <v>1993.721818661036</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505284</v>
+        <v>1796.75682206413</v>
       </c>
       <c r="V9" t="n">
-        <v>1765.624817505284</v>
+        <v>1561.604713832387</v>
       </c>
       <c r="W9" t="n">
-        <v>1511.387460777083</v>
+        <v>1307.367357104185</v>
       </c>
       <c r="X9" t="n">
-        <v>1303.53596057155</v>
+        <v>1099.515856898653</v>
       </c>
       <c r="Y9" t="n">
-        <v>1095.775661806596</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.5038506577855</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="C10" t="n">
-        <v>362.5038506577855</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="D10" t="n">
-        <v>362.5038506577855</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="E10" t="n">
-        <v>214.5907570753924</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753924</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181698</v>
+        <v>304.5349608815205</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181698</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181698</v>
+        <v>46.51640239181699</v>
       </c>
       <c r="J10" t="n">
-        <v>65.8954080190957</v>
+        <v>65.89540801909574</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736022</v>
+        <v>227.5779039736023</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632622</v>
+        <v>490.0022680632624</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794059</v>
+        <v>777.0810884794062</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.76843262062</v>
+        <v>1062.768432620621</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257116</v>
+        <v>1310.630639257117</v>
       </c>
       <c r="P10" t="n">
         <v>1499.198894325119</v>
@@ -4984,28 +4984,28 @@
         <v>1546.318699718233</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718233</v>
+        <v>1439.783439600088</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020056</v>
+        <v>1244.700524705961</v>
       </c>
       <c r="T10" t="n">
-        <v>1124.804258249597</v>
+        <v>1244.700524705961</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.804258249597</v>
+        <v>1244.700524705961</v>
       </c>
       <c r="V10" t="n">
-        <v>870.1197700437102</v>
+        <v>990.0160365000738</v>
       </c>
       <c r="W10" t="n">
-        <v>811.285980699333</v>
+        <v>700.5988664631133</v>
       </c>
       <c r="X10" t="n">
-        <v>583.2964298013156</v>
+        <v>472.6093155650959</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.5038506577855</v>
+        <v>472.6093155650959</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.918378293891</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>861.9821953659841</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>711.8655559536484</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.359422267661</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.566843124131</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5279,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1715.648304067511</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1460.963815861624</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441816</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,25 +5771,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6266,10 +6266,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6446,10 +6446,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,25 +6482,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7582,16 +7582,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7628,37 +7628,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,16 +7804,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.262887399594291</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>101.207462816862</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>220.1247239260508</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>217.251061967069</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289.8531656429338</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>65.42248400703838</v>
       </c>
       <c r="H2" t="n">
-        <v>288.8187520441966</v>
+        <v>191.5314002893264</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.17062136906675</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.107663475853</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.07129414993902</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>26.98982571067677</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716086</v>
+        <v>84626.07044716083</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612507</v>
       </c>
       <c r="H2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="J2" t="n">
         <v>100893.3249612507</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100893.3249612507</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>100893.3249612507</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512998</v>
+        <v>331437.5228513001</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424097</v>
+        <v>563905.7843424095</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>3.253642309305053e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201249</v>
+        <v>99845.1433620125</v>
       </c>
       <c r="M3" t="n">
         <v>147342.6769569553</v>
@@ -26421,7 +26421,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>157189.0051277988</v>
+        <v>157189.0051277987</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,16 +26430,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26448,16 +26448,16 @@
         <v>19157.89151488699</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488702</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488701</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543595</v>
+        <v>88290.79546543598</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827527.6670301807</v>
+        <v>-827887.7500458981</v>
       </c>
       <c r="C6" t="n">
-        <v>-211644.9475902506</v>
+        <v>-211644.9475902505</v>
       </c>
       <c r="D6" t="n">
-        <v>-474287.1022114991</v>
+        <v>-474287.1022114994</v>
       </c>
       <c r="E6" t="n">
-        <v>-575302.0214568595</v>
+        <v>-575336.759382295</v>
       </c>
       <c r="F6" t="n">
-        <v>-11396.23711444988</v>
+        <v>-11430.97503988555</v>
       </c>
       <c r="G6" t="n">
-        <v>-11396.23711444993</v>
+        <v>-11430.97503988557</v>
       </c>
       <c r="H6" t="n">
-        <v>-11396.23711444993</v>
+        <v>-11430.97503988555</v>
       </c>
       <c r="I6" t="n">
-        <v>-11396.23711444986</v>
+        <v>-11430.97503988567</v>
       </c>
       <c r="J6" t="n">
-        <v>-80395.3915335639</v>
+        <v>-80430.12945899958</v>
       </c>
       <c r="K6" t="n">
-        <v>-11396.23711444993</v>
+        <v>-11430.97503988557</v>
       </c>
       <c r="L6" t="n">
-        <v>-119536.9294977793</v>
+        <v>-119536.9294977794</v>
       </c>
       <c r="M6" t="n">
         <v>-167034.4630927222</v>
       </c>
       <c r="N6" t="n">
-        <v>-19691.78613576696</v>
+        <v>-19691.78613576689</v>
       </c>
       <c r="O6" t="n">
-        <v>-19691.78613576692</v>
+        <v>-19691.7861357669</v>
       </c>
       <c r="P6" t="n">
-        <v>-19691.78613576693</v>
+        <v>-19691.78613576695</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896813</v>
+        <v>885.8132865896815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977123</v>
+        <v>581.4550298977124</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-6.926151959655375e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>4.067052886631317e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-6.926151959655375e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.758272820203</v>
+        <v>271.7582728202033</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519925</v>
+        <v>482.1622137519922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962061</v>
+        <v>317.7411498962062</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019361</v>
+        <v>591.253258201936</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962061</v>
+        <v>317.7411498962062</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019361</v>
+        <v>591.253258201936</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.067052886631317e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962061</v>
+        <v>317.7411498962062</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019361</v>
+        <v>591.253258201936</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>347.4116906386716</v>
       </c>
       <c r="H2" t="n">
-        <v>25.37488058507137</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>21.07545074239556</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>63.60216519498601</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>23.85045430744978</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>152.4884436845404</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>38.57920276037737</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>28.49960167683381</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>138.3807702477113</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27822,19 +27822,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>241.2499529154896</v>
+        <v>267.0542780128897</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.9875555115337</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>378.9376572962822</v>
       </c>
       <c r="H8" t="n">
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411814982</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>127.8724504177534</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.702793141135999</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>30.82068451325625</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413785</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169635</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.046740646008686</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627544</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>228.2775468856576</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.56105843855148</v>
+        <v>3.561058438551481</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381535</v>
+        <v>36.46968973381536</v>
       </c>
       <c r="I8" t="n">
         <v>137.2877054522561</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490089</v>
+        <v>302.240383649009</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528931</v>
+        <v>452.9799873528933</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417131</v>
+        <v>561.9617295417133</v>
       </c>
       <c r="M8" t="n">
-        <v>625.290702548303</v>
+        <v>625.2907025483032</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368374</v>
+        <v>635.4085598368376</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884912</v>
+        <v>599.9982849884913</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867513</v>
+        <v>512.0846547867516</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561264</v>
+        <v>384.5542494561265</v>
       </c>
       <c r="R8" t="n">
         <v>223.6923371406596</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849193</v>
+        <v>81.14761916849196</v>
       </c>
       <c r="T8" t="n">
         <v>15.58853331475911</v>
@@ -31598,43 +31598,43 @@
         <v>18.40151751953282</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234905</v>
+        <v>65.60032358234906</v>
       </c>
       <c r="J9" t="n">
         <v>180.0123019474371</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657764</v>
+        <v>307.6696959657765</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247375</v>
+        <v>413.6998750247377</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913763</v>
+        <v>482.7682411913764</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139766</v>
+        <v>495.5456800139767</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059476</v>
+        <v>453.3274845059477</v>
       </c>
       <c r="P9" t="n">
         <v>363.8352723730335</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726989</v>
+        <v>243.214244272699</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053163</v>
+        <v>118.2978574053164</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799338</v>
+        <v>35.39074781799339</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150159</v>
+        <v>7.679834060150161</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815587</v>
+        <v>0.1253509367815588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719097</v>
+        <v>1.597368221719098</v>
       </c>
       <c r="H10" t="n">
         <v>14.20205564401162</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587977</v>
+        <v>48.03721888587979</v>
       </c>
       <c r="J10" t="n">
         <v>112.9339332755402</v>
@@ -31686,16 +31686,16 @@
         <v>185.5851443051824</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817647</v>
+        <v>237.4850899817648</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191126</v>
+        <v>250.3947295191127</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108871</v>
+        <v>244.4409025108872</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753503</v>
+        <v>225.7807373753504</v>
       </c>
       <c r="P10" t="n">
         <v>193.1944256522806</v>
@@ -31704,16 +31704,16 @@
         <v>133.7578062750419</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020594</v>
+        <v>71.82348386020595</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577735</v>
+        <v>27.83777164577736</v>
       </c>
       <c r="T10" t="n">
-        <v>6.82511876552705</v>
+        <v>6.825118765527052</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013268</v>
+        <v>0.08712917573013269</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>217.43861174566</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35173,28 +35173,28 @@
         <v>121.1944791223227</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079126</v>
+        <v>232.8901363079128</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717259</v>
+        <v>326.1953145717261</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210303</v>
+        <v>394.9444693210305</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402465</v>
+        <v>405.9954962402467</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668044</v>
+        <v>369.9000735668045</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314818</v>
+        <v>280.851659031482</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816769</v>
+        <v>162.248559581677</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527465</v>
+        <v>8.106799326527522</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.2657106211792</v>
+        <v>53.1746752807704</v>
       </c>
       <c r="K9" t="n">
-        <v>271.0357198082794</v>
+        <v>169.8282569914175</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448634</v>
+        <v>275.1454952448635</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693579</v>
+        <v>560.7589311954089</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306432</v>
+        <v>581.4550298977124</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615031</v>
+        <v>310.7312400615032</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587032</v>
+        <v>229.8608649587033</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225265</v>
+        <v>103.2324701866775</v>
       </c>
       <c r="R9" t="n">
-        <v>18.14002325267322</v>
+        <v>18.14002325267325</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.5747531588674</v>
+        <v>19.57475315886742</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792995</v>
+        <v>163.3156524792996</v>
       </c>
       <c r="L10" t="n">
         <v>265.0751152420809</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809532</v>
+        <v>289.9786064809533</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901157</v>
+        <v>288.5730748901158</v>
       </c>
       <c r="O10" t="n">
         <v>250.36586528939</v>
       </c>
       <c r="P10" t="n">
-        <v>190.472984917174</v>
+        <v>190.4729849171741</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334749</v>
+        <v>47.59576302334752</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
